--- a/3/3/1/En $ 2002 a 2021 - Mensual.xlsx
+++ b/3/3/1/En $ 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
   <si>
     <t>Serie</t>
   </si>
@@ -710,6 +710,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1070,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E228"/>
+  <dimension ref="A1:E229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4850,6 +4853,20 @@
         <v>4.49</v>
       </c>
     </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>232</v>
+      </c>
+      <c r="C229">
+        <v>2.63</v>
+      </c>
+      <c r="D229">
+        <v>3.9</v>
+      </c>
+      <c r="E229">
+        <v>4.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En $ 2002 a 2021 - Mensual.xlsx
+++ b/3/3/1/En $ 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t>Serie</t>
   </si>
@@ -713,6 +713,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E229"/>
+  <dimension ref="A1:E230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4867,6 +4870,20 @@
         <v>4.7</v>
       </c>
     </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>233</v>
+      </c>
+      <c r="C230">
+        <v>3.96</v>
+      </c>
+      <c r="D230">
+        <v>4.83</v>
+      </c>
+      <c r="E230">
+        <v>5.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En $ 2002 a 2021 - Mensual.xlsx
+++ b/3/3/1/En $ 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
   <si>
     <t>Serie</t>
   </si>
@@ -716,6 +716,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E230"/>
+  <dimension ref="A1:E231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4884,6 +4887,17 @@
         <v>5.23</v>
       </c>
     </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>234</v>
+      </c>
+      <c r="D231">
+        <v>5.97</v>
+      </c>
+      <c r="E231">
+        <v>6.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En $ 2002 a 2021 - Mensual.xlsx
+++ b/3/3/1/En $ 2002 a 2021 - Mensual.xlsx
@@ -4891,6 +4891,9 @@
       <c r="A231" t="s">
         <v>234</v>
       </c>
+      <c r="C231">
+        <v>4.83</v>
+      </c>
       <c r="D231">
         <v>5.97</v>
       </c>
